--- a/valores.xlsx
+++ b/valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javier/GIT/Boletas_emitir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA9059A-7C4C-7B4D-845F-14578E1C38A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8633B2B6-497D-1F4E-BD05-4169EB0AD59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19240" xr2:uid="{11964863-175E-464D-95AF-0B1F4C6AD5BF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19200" xr2:uid="{11964863-175E-464D-95AF-0B1F4C6AD5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,125 +379,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B782D-3B1F-0743-B4C2-8970A5C1DE77}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>